--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_PO_370_管理者プロファイル値の管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_PO_370_管理者プロファイル値の管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\01_セットアップ定義書\10_コンサル\PO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19801～19900\E_本稼動_19870【会計】四半期アップデート対応購買PDF添付\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="408" yWindow="1236" windowWidth="14712" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="405" yWindow="2430" windowWidth="14715" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -936,12 +936,12 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1144,16 +1144,49 @@
     <t>ORA_FND_SEARCH_FETCH_COUNT</t>
     <phoneticPr fontId="50"/>
   </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>E_本稼動_19870 対応</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>PO_TASK_ATTACHMENTS_BLOB</t>
+  </si>
+  <si>
+    <t>購買</t>
+  </si>
+  <si>
+    <t>PO_TASK_ATTACHMENTS_BLOB</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>PO_TASK_ATTACHMENTS_BLOB: プロファイル値</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>サイト</t>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="40"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="60">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1533,6 +1566,36 @@
       <color theme="0"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF66FF"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF66FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF66FF"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF66FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2125,7 +2188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2144,6 +2207,12 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="15" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="64"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="63" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="63" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2296,6 +2365,12 @@
     <xf numFmtId="0" fontId="54" fillId="15" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="15" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="15" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="3232" xfId="68"/>
@@ -2382,6 +2457,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10845,1160 +10925,1164 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
-    <row r="2" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="1" spans="1:37" ht="12" thickBot="1"/>
+    <row r="2" spans="1:37" ht="12" thickBot="1">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="17"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="54">
+      <c r="A3" s="58">
         <v>44916</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="45" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="20"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="55"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="19"/>
+      <c r="A4" s="59">
+        <v>45365</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="22"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="26"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="55"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="27"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="31"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="30"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="34"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="30"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="34"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="33"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="37"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="30"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="34"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="24"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="28"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="24"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="28"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="24"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="28"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="24"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="28"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="24"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="28"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="24"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="28"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="24"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="28"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="24"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="28"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="24"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="28"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="24"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="28"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="24"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="28"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="24"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="28"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="24"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="28"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="24"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="28"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="24"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="28"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="24"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="28"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="24"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="28"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="24"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="28"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="24"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="28"/>
     </row>
-    <row r="30" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="35"/>
+    <row r="30" spans="1:37" ht="12" thickBot="1">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -12099,23 +12183,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G26"/>
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+  </sheetPr>
+  <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="3"/>
-    <col min="2" max="2" width="46.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="56.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="104.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="7.6640625" style="3"/>
+    <col min="1" max="1" width="7.625" style="3"/>
+    <col min="2" max="2" width="46.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="56.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="104.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -12123,7 +12208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="22.8">
+    <row r="3" spans="2:7" ht="21">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -12193,93 +12278,146 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="62" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="14">
+        <v>45364</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C14" s="67"/>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="2:7">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
     <row r="16" spans="2:7">
       <c r="B16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="62" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C20" s="67"/>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
     <row r="22" spans="2:3">
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C24" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="69"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
+  <mergeCells count="3">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <hyperlinks>
     <hyperlink ref="B2" location="目次!A1" display="Index"/>
-    <hyperlink ref="B26" r:id="rId1" location="u30227734"/>
+    <hyperlink ref="B33" r:id="rId1" location="u30227734"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
